--- a/Data/Results/RuntimeResult_VariableDepthTest.xlsx
+++ b/Data/Results/RuntimeResult_VariableDepthTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Master\Hochschule Fulda\Module\Masterarbeit\Implementierungen\Data\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Studium\Hochschule Fulda\Master\Masterarbeit\Implementierungen\Data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087308FE-C9DB-48C1-ADAD-1907E5ACB98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD0DE6C-BE7B-4FE9-90F5-C066A4BCA50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>T1</t>
   </si>
@@ -49,16 +49,24 @@
   <si>
     <t>Iterations</t>
   </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Avg Number of Iterations</t>
+  </si>
+  <si>
+    <t>Avg Runtime (in s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
-    <numFmt numFmtId="170" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -537,12 +545,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -599,6 +606,2038 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Analysis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> of Level</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RuntimeResult_VariableDepthTest!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Number of Iterations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>RuntimeResult_VariableDepthTest!$M$2:$M$52</c:f>
+              <c:strCache>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RuntimeResult_VariableDepthTest!$N$2:$N$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>7703.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8014.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8014.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8014.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8014.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8014.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8014.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8012.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8012.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8012.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8011.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8014.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8020</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8018.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8018.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8018.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8018.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8017.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8015.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7939</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7861.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7864.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7864.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7864.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7864.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7864.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7863.75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7863.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7863.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7863.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7863.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7863.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7863.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7863.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7863.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7863.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7863.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7861.25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7861.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7785</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7785</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7785</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7708.75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7708.75</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7708.75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7708.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7708.75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7708.75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7708.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-482E-4B55-B58A-CDDB0F6D971B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="397839839"/>
+        <c:axId val="397846079"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>RuntimeResult_VariableDepthTest!$M$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Level</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>RuntimeResult_VariableDepthTest!$M$2:$M$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="51"/>
+                      <c:pt idx="0">
+                        <c:v>max</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>RuntimeResult_VariableDepthTest!$M$2:$M$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="51"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-482E-4B55-B58A-CDDB0F6D971B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RuntimeResult_VariableDepthTest!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Runtime (in s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>RuntimeResult_VariableDepthTest!$O$2:$O$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1.7225348049999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7437863569736884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7499258812500007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7432209775000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7401687275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7451832612500007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7447005862500002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7469332037499998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7455807774999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7435442187499999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7473946849999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7453169212500015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7501438424999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7441096787500001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7480449200000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.74816125125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7453157662500007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7450535024999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7493361762500008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7428679262499998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7450970462500002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7471859262500005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7503063974999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.743118435</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7466702037499999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7477222524999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7468850312499995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.748097384999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7498904799999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7489699900000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7526342887500004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.748579495</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7531080400000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7516244700000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7421134325000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7454494150000008</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7437325974999993</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7520039062500001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7686711700000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7680564100000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.769126065</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7668107224999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7592266287500007</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7624272999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7541497225</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.75934098625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7585672412499993</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7665716249999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7549538237500002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7505930325000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7479510037500003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-482E-4B55-B58A-CDDB0F6D971B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="397847039"/>
+        <c:axId val="397845119"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="397839839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Level</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397846079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397846079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397839839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="397845119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397847039"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="397847039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="397845119"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA03B80-503D-52E0-EA26-E0E6392714B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -890,7 +2929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -900,7 +2939,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T4041"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -915,8 +2956,8 @@
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -953,6 +2994,15 @@
       <c r="K1" t="s">
         <v>3</v>
       </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -980,15 +3030,24 @@
         <v>2147483647</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J33" si="0">SUMIFS(D:D,A:A,G2,B:B,H2,C:C,I2)/COUNTIFS(A:A,G2,B:B,H2,C:C,I2)</f>
+        <f>SUMIFS(D:D,A:A,G2,B:B,H2,C:C,I2)/COUNTIFS(A:A,G2,B:B,H2,C:C,I2)</f>
         <v>7728</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K33" si="1">SUMIFS(E:E,A:A,G2,B:B,H2,C:C,I2)/COUNTIFS(A:A,G2,B:B,H2,C:C,I2)</f>
+        <f t="shared" ref="K2:K33" si="0">SUMIFS(E:E,A:A,G2,B:B,H2,C:C,I2)/COUNTIFS(A:A,G2,B:B,H2,C:C,I2)</f>
         <v>1.7191853899999994</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="1"/>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <f>SUMIFS(D:D,C:C,I2)/COUNTIFS(C:C,I2)</f>
+        <v>7703.5</v>
+      </c>
+      <c r="O2">
+        <f>SUMIFS(E:E,C:C,I2)/COUNTIFS(C:C,I2)</f>
+        <v>1.7225348049999998</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="T2" s="1"/>
     </row>
@@ -1018,15 +3077,24 @@
         <v>1</v>
       </c>
       <c r="J3">
+        <f t="shared" ref="J2:J33" si="1">SUMIFS(D:D,A:A,G3,B:B,H3,C:C,I3)/COUNTIFS(A:A,G3,B:B,H3,C:C,I3)</f>
+        <v>8019</v>
+      </c>
+      <c r="K3" s="1">
         <f t="shared" si="0"/>
-        <v>8019</v>
-      </c>
-      <c r="K3" s="1">
-        <f t="shared" si="1"/>
         <v>1.7499711578947501</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="1"/>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N52" si="2">SUMIFS(D:D,C:C,I3)/COUNTIFS(C:C,I3)</f>
+        <v>8014.5</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O52" si="3">SUMIFS(E:E,C:C,I3)/COUNTIFS(C:C,I3)</f>
+        <v>1.7437863569736884</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="1"/>
     </row>
@@ -1056,15 +3124,24 @@
         <v>2</v>
       </c>
       <c r="J4">
+        <f t="shared" si="1"/>
+        <v>8019</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>8019</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="1"/>
         <v>1.7463404500000004</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="1"/>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>8014.5</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>1.7499258812500007</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="1"/>
     </row>
@@ -1094,15 +3171,24 @@
         <v>3</v>
       </c>
       <c r="J5">
+        <f t="shared" si="1"/>
+        <v>8019</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>8019</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="1"/>
         <v>1.7392452349999998</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="1"/>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>8014.5</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>1.7432209775000007</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="1"/>
     </row>
@@ -1132,16 +3218,25 @@
         <v>4</v>
       </c>
       <c r="J6">
+        <f t="shared" si="1"/>
+        <v>8019</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>8019</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="1"/>
         <v>1.7390620699999999</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="1"/>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>8014</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>1.7401687275</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="T6" s="1"/>
     </row>
@@ -1171,15 +3266,24 @@
         <v>5</v>
       </c>
       <c r="J7">
+        <f t="shared" si="1"/>
+        <v>8019</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>8019</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="1"/>
         <v>1.736928995</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="1"/>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>8014.5</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>1.7451832612500007</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="T7" s="1"/>
     </row>
@@ -1209,15 +3313,24 @@
         <v>6</v>
       </c>
       <c r="J8">
+        <f t="shared" si="1"/>
+        <v>8019</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>8019</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="1"/>
         <v>1.7520836600000003</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="1"/>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>8014.5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>1.7447005862500002</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="1"/>
     </row>
@@ -1247,15 +3360,24 @@
         <v>7</v>
       </c>
       <c r="J9">
+        <f t="shared" si="1"/>
+        <v>8019</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>8019</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="1"/>
         <v>1.74402882</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="1"/>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>8014.5</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>1.7469332037499998</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="1"/>
     </row>
@@ -1285,15 +3407,24 @@
         <v>8</v>
       </c>
       <c r="J10">
+        <f t="shared" si="1"/>
+        <v>8019</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="0"/>
-        <v>8019</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="1"/>
         <v>1.7418999550000003</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="1"/>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>8012.25</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>1.7455807774999994</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="1"/>
     </row>
@@ -1323,15 +3454,24 @@
         <v>9</v>
       </c>
       <c r="J11">
+        <f t="shared" si="1"/>
+        <v>8019</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="0"/>
-        <v>8019</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="1"/>
         <v>1.73103512</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="1"/>
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>8012.25</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>1.7435442187499999</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="1"/>
     </row>
@@ -1361,15 +3501,24 @@
         <v>10</v>
       </c>
       <c r="J12">
+        <f t="shared" si="1"/>
+        <v>8021</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="0"/>
-        <v>8021</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="1"/>
         <v>1.7506363400000002</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="1"/>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>8012.25</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>1.7473946849999993</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="1"/>
     </row>
@@ -1399,15 +3548,24 @@
         <v>11</v>
       </c>
       <c r="J13">
+        <f t="shared" si="1"/>
+        <v>8021</v>
+      </c>
+      <c r="K13" s="1">
         <f t="shared" si="0"/>
-        <v>8021</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="1"/>
         <v>1.7490592249999994</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="1"/>
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>8011.25</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>1.7453169212500015</v>
+      </c>
       <c r="S13" s="2"/>
       <c r="T13" s="1"/>
     </row>
@@ -1437,15 +3595,24 @@
         <v>12</v>
       </c>
       <c r="J14">
+        <f t="shared" si="1"/>
+        <v>8021</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="0"/>
-        <v>8021</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="1"/>
         <v>1.7476115300000004</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="1"/>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>8014.25</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>1.7501438424999995</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="1"/>
     </row>
@@ -1475,15 +3642,24 @@
         <v>13</v>
       </c>
       <c r="J15">
+        <f t="shared" si="1"/>
+        <v>8021</v>
+      </c>
+      <c r="K15" s="1">
         <f t="shared" si="0"/>
+        <v>1.7393874950000001</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
         <v>8021</v>
       </c>
-      <c r="K15" s="1">
-        <f t="shared" si="1"/>
-        <v>1.7393874950000001</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="1"/>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>1.7441096787500001</v>
+      </c>
       <c r="S15" s="2"/>
       <c r="T15" s="1"/>
     </row>
@@ -1513,15 +3689,24 @@
         <v>14</v>
       </c>
       <c r="J16">
+        <f t="shared" si="1"/>
+        <v>8021</v>
+      </c>
+      <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>8021</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="1"/>
         <v>1.7533857149999998</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="1"/>
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>8020</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>1.7480449200000003</v>
+      </c>
       <c r="S16" s="2"/>
       <c r="T16" s="1"/>
     </row>
@@ -1551,15 +3736,24 @@
         <v>15</v>
       </c>
       <c r="J17">
+        <f t="shared" si="1"/>
+        <v>8021</v>
+      </c>
+      <c r="K17" s="1">
         <f t="shared" si="0"/>
-        <v>8021</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="1"/>
         <v>1.7436406799999999</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="1"/>
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>8018.25</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>1.74816125125</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="1"/>
     </row>
@@ -1589,15 +3783,24 @@
         <v>16</v>
       </c>
       <c r="J18">
+        <f t="shared" si="1"/>
+        <v>8021</v>
+      </c>
+      <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>8021</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="1"/>
         <v>1.7465316849999997</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="1"/>
+      <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>8018.25</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>1.7453157662500007</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="T18" s="1"/>
     </row>
@@ -1627,15 +3830,24 @@
         <v>17</v>
       </c>
       <c r="J19">
+        <f t="shared" si="1"/>
+        <v>8021</v>
+      </c>
+      <c r="K19" s="1">
         <f t="shared" si="0"/>
-        <v>8021</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="1"/>
         <v>1.74136001</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="1"/>
+      <c r="M19">
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>8018.25</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>1.7450535024999998</v>
+      </c>
       <c r="S19" s="2"/>
       <c r="T19" s="1"/>
     </row>
@@ -1665,15 +3877,24 @@
         <v>18</v>
       </c>
       <c r="J20">
+        <f t="shared" si="1"/>
+        <v>8021</v>
+      </c>
+      <c r="K20" s="1">
         <f t="shared" si="0"/>
-        <v>8021</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="1"/>
         <v>1.7497749649999998</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="1"/>
+      <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>8018.25</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>1.7493361762500008</v>
+      </c>
       <c r="S20" s="2"/>
       <c r="T20" s="1"/>
     </row>
@@ -1703,15 +3924,24 @@
         <v>19</v>
       </c>
       <c r="J21">
+        <f t="shared" si="1"/>
+        <v>8021</v>
+      </c>
+      <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>8021</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="1"/>
         <v>1.7337573500000001</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="1"/>
+      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>8017.75</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>1.7428679262499998</v>
+      </c>
       <c r="S21" s="2"/>
       <c r="T21" s="1"/>
     </row>
@@ -1741,15 +3971,24 @@
         <v>20</v>
       </c>
       <c r="J22">
+        <f t="shared" si="1"/>
+        <v>8021</v>
+      </c>
+      <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>8021</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="1"/>
         <v>1.7373169449999999</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="1"/>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>8015.25</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>1.7450970462500002</v>
+      </c>
       <c r="S22" s="2"/>
       <c r="T22" s="1"/>
     </row>
@@ -1779,15 +4018,24 @@
         <v>21</v>
       </c>
       <c r="J23">
+        <f t="shared" si="1"/>
+        <v>8021</v>
+      </c>
+      <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>8021</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="1"/>
         <v>1.7433031199999998</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="1"/>
+      <c r="M23">
+        <v>21</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>7939</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>1.7471859262500005</v>
+      </c>
       <c r="S23" s="2"/>
       <c r="T23" s="1"/>
     </row>
@@ -1817,15 +4065,24 @@
         <v>22</v>
       </c>
       <c r="J24">
+        <f t="shared" si="1"/>
+        <v>8021</v>
+      </c>
+      <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>8021</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="1"/>
         <v>1.7457838699999999</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="1"/>
+      <c r="M24">
+        <v>22</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>7861.75</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>1.7503063974999997</v>
+      </c>
       <c r="S24" s="2"/>
       <c r="T24" s="1"/>
     </row>
@@ -1855,15 +4112,24 @@
         <v>23</v>
       </c>
       <c r="J25">
+        <f t="shared" si="1"/>
+        <v>8033</v>
+      </c>
+      <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>8033</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="1"/>
         <v>1.7375903999999998</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="1"/>
+      <c r="M25">
+        <v>23</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>7864.75</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>1.743118435</v>
+      </c>
       <c r="S25" s="2"/>
       <c r="T25" s="1"/>
     </row>
@@ -1893,15 +4159,24 @@
         <v>24</v>
       </c>
       <c r="J26">
+        <f t="shared" si="1"/>
+        <v>8033</v>
+      </c>
+      <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>8033</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="1"/>
         <v>1.7342831749999998</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="1"/>
+      <c r="M26">
+        <v>24</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>7864.75</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>1.7466702037499999</v>
+      </c>
       <c r="S26" s="2"/>
       <c r="T26" s="1"/>
     </row>
@@ -1931,15 +4206,24 @@
         <v>25</v>
       </c>
       <c r="J27">
+        <f t="shared" si="1"/>
+        <v>8033</v>
+      </c>
+      <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>8033</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="1"/>
         <v>1.7441922100000002</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="1"/>
+      <c r="M27">
+        <v>25</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>7864.75</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>1.7477222524999998</v>
+      </c>
       <c r="S27" s="2"/>
       <c r="T27" s="1"/>
     </row>
@@ -1969,12 +4253,23 @@
         <v>26</v>
       </c>
       <c r="J28">
+        <f t="shared" si="1"/>
+        <v>8033</v>
+      </c>
+      <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>8033</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="1"/>
         <v>1.7375764350000005</v>
+      </c>
+      <c r="M28">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>7864.75</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
+        <v>1.7468850312499995</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -2003,12 +4298,23 @@
         <v>27</v>
       </c>
       <c r="J29">
+        <f t="shared" si="1"/>
+        <v>8033</v>
+      </c>
+      <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>8033</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="1"/>
         <v>1.7461115500000002</v>
+      </c>
+      <c r="M29">
+        <v>27</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>7864.75</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="3"/>
+        <v>1.748097384999999</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -2037,15 +4343,24 @@
         <v>28</v>
       </c>
       <c r="J30">
+        <f t="shared" si="1"/>
+        <v>8033</v>
+      </c>
+      <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>8033</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="1"/>
         <v>1.7441339949999997</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="1"/>
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>7863.75</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>1.7498904799999999</v>
+      </c>
       <c r="S30" s="2"/>
       <c r="T30" s="1"/>
     </row>
@@ -2075,15 +4390,24 @@
         <v>29</v>
       </c>
       <c r="J31">
+        <f t="shared" si="1"/>
+        <v>8033</v>
+      </c>
+      <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>8033</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="1"/>
         <v>1.745473845</v>
       </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="1"/>
+      <c r="M31">
+        <v>29</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>7863.75</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>1.7489699900000004</v>
+      </c>
       <c r="S31" s="2"/>
       <c r="T31" s="1"/>
     </row>
@@ -2113,15 +4437,24 @@
         <v>30</v>
       </c>
       <c r="J32">
+        <f t="shared" si="1"/>
+        <v>8033</v>
+      </c>
+      <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>8033</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="1"/>
         <v>1.745098375</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="1"/>
+      <c r="M32">
+        <v>30</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>7863.75</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
+        <v>1.7526342887500004</v>
+      </c>
       <c r="S32" s="2"/>
       <c r="T32" s="1"/>
     </row>
@@ -2151,12 +4484,23 @@
         <v>31</v>
       </c>
       <c r="J33">
+        <f t="shared" si="1"/>
+        <v>8033</v>
+      </c>
+      <c r="K33" s="1">
         <f t="shared" si="0"/>
-        <v>8033</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="1"/>
         <v>1.7417917200000002</v>
+      </c>
+      <c r="M33">
+        <v>31</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>7863.75</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="3"/>
+        <v>1.748579495</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="1"/>
@@ -2187,12 +4531,23 @@
         <v>32</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34:J65" si="2">SUMIFS(D:D,A:A,G34,B:B,H34,C:C,I34)/COUNTIFS(A:A,G34,B:B,H34,C:C,I34)</f>
+        <f t="shared" ref="J34:J58" si="4">SUMIFS(D:D,A:A,G34,B:B,H34,C:C,I34)/COUNTIFS(A:A,G34,B:B,H34,C:C,I34)</f>
         <v>8033</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" ref="K34:K65" si="3">SUMIFS(E:E,A:A,G34,B:B,H34,C:C,I34)/COUNTIFS(A:A,G34,B:B,H34,C:C,I34)</f>
+        <f t="shared" ref="K34:K58" si="5">SUMIFS(E:E,A:A,G34,B:B,H34,C:C,I34)/COUNTIFS(A:A,G34,B:B,H34,C:C,I34)</f>
         <v>1.7557178100000002</v>
+      </c>
+      <c r="M34">
+        <v>32</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>7863.75</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="3"/>
+        <v>1.7531080400000001</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="1"/>
@@ -2223,15 +4578,24 @@
         <v>33</v>
       </c>
       <c r="J35">
+        <f t="shared" si="4"/>
+        <v>8033</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="5"/>
+        <v>1.74172565</v>
+      </c>
+      <c r="M35">
+        <v>33</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="2"/>
-        <v>8033</v>
-      </c>
-      <c r="K35" s="1">
+        <v>7863.75</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="3"/>
-        <v>1.74172565</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="1"/>
+        <v>1.7516244700000005</v>
+      </c>
       <c r="S35" s="2"/>
       <c r="T35" s="1"/>
     </row>
@@ -2261,15 +4625,24 @@
         <v>34</v>
       </c>
       <c r="J36">
+        <f t="shared" si="4"/>
+        <v>8033</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7338451100000001</v>
+      </c>
+      <c r="M36">
+        <v>34</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="2"/>
-        <v>8033</v>
-      </c>
-      <c r="K36" s="1">
+        <v>7863.75</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="3"/>
-        <v>1.7338451100000001</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="1"/>
+        <v>1.7421134325000005</v>
+      </c>
       <c r="S36" s="2"/>
       <c r="T36" s="1"/>
     </row>
@@ -2299,15 +4672,24 @@
         <v>35</v>
       </c>
       <c r="J37">
+        <f t="shared" si="4"/>
+        <v>8033</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7394649049999997</v>
+      </c>
+      <c r="M37">
+        <v>35</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="2"/>
-        <v>8033</v>
-      </c>
-      <c r="K37" s="1">
+        <v>7863.75</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="3"/>
-        <v>1.7394649049999997</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="1"/>
+        <v>1.7454494150000008</v>
+      </c>
       <c r="S37" s="2"/>
       <c r="T37" s="1"/>
     </row>
@@ -2337,12 +4719,23 @@
         <v>36</v>
       </c>
       <c r="J38">
+        <f t="shared" si="4"/>
+        <v>8033</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7359167900000003</v>
+      </c>
+      <c r="M38">
+        <v>36</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="2"/>
-        <v>8033</v>
-      </c>
-      <c r="K38" s="1">
+        <v>7863.75</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="3"/>
-        <v>1.7359167900000003</v>
+        <v>1.7437325974999993</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="1"/>
@@ -2373,12 +4766,23 @@
         <v>37</v>
       </c>
       <c r="J39">
+        <f t="shared" si="4"/>
+        <v>8033</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7403916250000004</v>
+      </c>
+      <c r="M39">
+        <v>37</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="2"/>
-        <v>8033</v>
-      </c>
-      <c r="K39" s="1">
+        <v>7863.75</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="3"/>
-        <v>1.7403916250000004</v>
+        <v>1.7520039062500001</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="1"/>
@@ -2409,12 +4813,23 @@
         <v>38</v>
       </c>
       <c r="J40">
+        <f t="shared" si="4"/>
+        <v>8033</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7710857150000003</v>
+      </c>
+      <c r="M40">
+        <v>38</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="2"/>
-        <v>8033</v>
-      </c>
-      <c r="K40" s="1">
+        <v>7863.75</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="3"/>
-        <v>1.7710857150000003</v>
+        <v>1.7686711700000004</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40" s="1"/>
@@ -2445,12 +4860,23 @@
         <v>39</v>
       </c>
       <c r="J41">
+        <f t="shared" si="4"/>
+        <v>8033</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="5"/>
+        <v>1.762881505</v>
+      </c>
+      <c r="M41">
+        <v>39</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="2"/>
-        <v>8033</v>
-      </c>
-      <c r="K41" s="1">
+        <v>7861.25</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="3"/>
-        <v>1.762881505</v>
+        <v>1.7680564100000005</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="1"/>
@@ -2481,12 +4907,23 @@
         <v>40</v>
       </c>
       <c r="J42">
+        <f t="shared" si="4"/>
+        <v>8033</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7597445350000001</v>
+      </c>
+      <c r="M42">
+        <v>40</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="2"/>
-        <v>8033</v>
-      </c>
-      <c r="K42" s="1">
+        <v>7861.25</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="3"/>
-        <v>1.7597445350000001</v>
+        <v>1.769126065</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="1"/>
@@ -2517,12 +4954,23 @@
         <v>41</v>
       </c>
       <c r="J43">
+        <f t="shared" si="4"/>
+        <v>7728</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7525340149999997</v>
+      </c>
+      <c r="M43">
+        <v>41</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="2"/>
-        <v>7728</v>
-      </c>
-      <c r="K43" s="1">
+        <v>7785</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="3"/>
-        <v>1.7525340149999997</v>
+        <v>1.7668107224999996</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43" s="1"/>
@@ -2553,12 +5001,23 @@
         <v>42</v>
       </c>
       <c r="J44">
+        <f t="shared" si="4"/>
+        <v>7728</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="5"/>
+        <v>1.755843115</v>
+      </c>
+      <c r="M44">
+        <v>42</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="2"/>
-        <v>7728</v>
-      </c>
-      <c r="K44" s="1">
+        <v>7785</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="3"/>
-        <v>1.755843115</v>
+        <v>1.7592266287500007</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44" s="1"/>
@@ -2589,12 +5048,23 @@
         <v>43</v>
       </c>
       <c r="J45">
+        <f t="shared" si="4"/>
+        <v>7728</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="5"/>
+        <v>1.756110815</v>
+      </c>
+      <c r="M45">
+        <v>43</v>
+      </c>
+      <c r="N45">
         <f t="shared" si="2"/>
-        <v>7728</v>
-      </c>
-      <c r="K45" s="1">
+        <v>7785</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="3"/>
-        <v>1.756110815</v>
+        <v>1.7624272999999999</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45" s="1"/>
@@ -2625,12 +5095,23 @@
         <v>44</v>
       </c>
       <c r="J46">
+        <f t="shared" si="4"/>
+        <v>7728</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7478084150000002</v>
+      </c>
+      <c r="M46">
+        <v>44</v>
+      </c>
+      <c r="N46">
         <f t="shared" si="2"/>
-        <v>7728</v>
-      </c>
-      <c r="K46" s="1">
+        <v>7708.75</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="3"/>
-        <v>1.7478084150000002</v>
+        <v>1.7541497225</v>
       </c>
       <c r="S46" s="2"/>
       <c r="T46" s="1"/>
@@ -2661,12 +5142,23 @@
         <v>45</v>
       </c>
       <c r="J47">
+        <f t="shared" si="4"/>
+        <v>7728</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7573837900000004</v>
+      </c>
+      <c r="M47">
+        <v>45</v>
+      </c>
+      <c r="N47">
         <f t="shared" si="2"/>
-        <v>7728</v>
-      </c>
-      <c r="K47" s="1">
+        <v>7708.75</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="3"/>
-        <v>1.7573837900000004</v>
+        <v>1.75934098625</v>
       </c>
       <c r="S47" s="2"/>
       <c r="T47" s="1"/>
@@ -2697,12 +5189,23 @@
         <v>46</v>
       </c>
       <c r="J48">
+        <f t="shared" si="4"/>
+        <v>7728</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7500934700000002</v>
+      </c>
+      <c r="M48">
+        <v>46</v>
+      </c>
+      <c r="N48">
         <f t="shared" si="2"/>
-        <v>7728</v>
-      </c>
-      <c r="K48" s="1">
+        <v>7708.75</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="3"/>
-        <v>1.7500934700000002</v>
+        <v>1.7585672412499993</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48" s="1"/>
@@ -2733,12 +5236,23 @@
         <v>47</v>
       </c>
       <c r="J49">
+        <f t="shared" si="4"/>
+        <v>7728</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7575011349999996</v>
+      </c>
+      <c r="M49">
+        <v>47</v>
+      </c>
+      <c r="N49">
         <f t="shared" si="2"/>
-        <v>7728</v>
-      </c>
-      <c r="K49" s="1">
+        <v>7708.75</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="3"/>
-        <v>1.7575011349999996</v>
+        <v>1.7665716249999996</v>
       </c>
       <c r="S49" s="2"/>
       <c r="T49" s="1"/>
@@ -2769,12 +5283,23 @@
         <v>48</v>
       </c>
       <c r="J50">
+        <f t="shared" si="4"/>
+        <v>7728</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7554097</v>
+      </c>
+      <c r="M50">
+        <v>48</v>
+      </c>
+      <c r="N50">
         <f t="shared" si="2"/>
-        <v>7728</v>
-      </c>
-      <c r="K50" s="1">
+        <v>7708.75</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="3"/>
-        <v>1.7554097</v>
+        <v>1.7549538237500002</v>
       </c>
       <c r="S50" s="2"/>
       <c r="T50" s="1"/>
@@ -2805,12 +5330,23 @@
         <v>49</v>
       </c>
       <c r="J51">
+        <f t="shared" si="4"/>
+        <v>7728</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7424966949999998</v>
+      </c>
+      <c r="M51">
+        <v>49</v>
+      </c>
+      <c r="N51">
         <f t="shared" si="2"/>
-        <v>7728</v>
-      </c>
-      <c r="K51" s="1">
+        <v>7708.75</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="3"/>
-        <v>1.7424966949999998</v>
+        <v>1.7505930325000005</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="1"/>
@@ -2841,12 +5377,23 @@
         <v>50</v>
       </c>
       <c r="J52">
+        <f t="shared" si="4"/>
+        <v>7728</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="5"/>
+        <v>1.74569419</v>
+      </c>
+      <c r="M52">
+        <v>50</v>
+      </c>
+      <c r="N52">
         <f t="shared" si="2"/>
-        <v>7728</v>
-      </c>
-      <c r="K52" s="1">
+        <v>7708.75</v>
+      </c>
+      <c r="O52">
         <f t="shared" si="3"/>
-        <v>1.74569419</v>
+        <v>1.7479510037500003</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52" s="1"/>
@@ -2877,11 +5424,11 @@
         <v>1</v>
       </c>
       <c r="J53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8013</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7403421500000005</v>
       </c>
       <c r="S53" s="2"/>
@@ -2913,11 +5460,11 @@
         <v>2</v>
       </c>
       <c r="J54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8013</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7531717450000002</v>
       </c>
       <c r="S54" s="2"/>
@@ -2949,11 +5496,11 @@
         <v>3</v>
       </c>
       <c r="J55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8013</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.737163115</v>
       </c>
       <c r="S55" s="2"/>
@@ -2985,11 +5532,11 @@
         <v>4</v>
       </c>
       <c r="J56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8013</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7405046199999998</v>
       </c>
     </row>
@@ -3019,11 +5566,11 @@
         <v>5</v>
       </c>
       <c r="J57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8015</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7464041950000002</v>
       </c>
     </row>
@@ -3053,11 +5600,11 @@
         <v>6</v>
       </c>
       <c r="J58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8015</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7419897800000004</v>
       </c>
     </row>
@@ -3087,11 +5634,11 @@
         <v>7</v>
       </c>
       <c r="J59">
-        <f t="shared" ref="J59:J83" si="4">SUMIFS(D:D,A:A,G59,B:B,H59,C:C,I59)/COUNTIFS(A:A,G59,B:B,H59,C:C,I59)</f>
+        <f t="shared" ref="J59:J83" si="6">SUMIFS(D:D,A:A,G59,B:B,H59,C:C,I59)/COUNTIFS(A:A,G59,B:B,H59,C:C,I59)</f>
         <v>8015</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" ref="K59:K83" si="5">SUMIFS(E:E,A:A,G59,B:B,H59,C:C,I59)/COUNTIFS(A:A,G59,B:B,H59,C:C,I59)</f>
+        <f t="shared" ref="K59:K83" si="7">SUMIFS(E:E,A:A,G59,B:B,H59,C:C,I59)/COUNTIFS(A:A,G59,B:B,H59,C:C,I59)</f>
         <v>1.7505485399999998</v>
       </c>
     </row>
@@ -3121,11 +5668,11 @@
         <v>8</v>
       </c>
       <c r="J60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8015</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7434889300000005</v>
       </c>
     </row>
@@ -3155,11 +5702,11 @@
         <v>9</v>
       </c>
       <c r="J61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8015</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7464384850000001</v>
       </c>
     </row>
@@ -3189,11 +5736,11 @@
         <v>10</v>
       </c>
       <c r="J62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8015</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7454422049999998</v>
       </c>
     </row>
@@ -3223,11 +5770,11 @@
         <v>11</v>
       </c>
       <c r="J63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8015</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7389306950000001</v>
       </c>
     </row>
@@ -3257,11 +5804,11 @@
         <v>12</v>
       </c>
       <c r="J64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8027</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7444562049999999</v>
       </c>
     </row>
@@ -3291,11 +5838,11 @@
         <v>13</v>
       </c>
       <c r="J65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8054</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.74055095</v>
       </c>
     </row>
@@ -3325,11 +5872,11 @@
         <v>14</v>
       </c>
       <c r="J66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8054</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7432630549999999</v>
       </c>
     </row>
@@ -3359,11 +5906,11 @@
         <v>15</v>
       </c>
       <c r="J67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8054</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7493020800000003</v>
       </c>
     </row>
@@ -3393,11 +5940,11 @@
         <v>16</v>
       </c>
       <c r="J68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8054</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7403890199999998</v>
       </c>
     </row>
@@ -3427,11 +5974,11 @@
         <v>17</v>
       </c>
       <c r="J69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8054</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7385868750000004</v>
       </c>
     </row>
@@ -3461,11 +6008,11 @@
         <v>18</v>
       </c>
       <c r="J70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8054</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7481545399999994</v>
       </c>
     </row>
@@ -3495,11 +6042,11 @@
         <v>19</v>
       </c>
       <c r="J71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8054</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.73849791</v>
       </c>
     </row>
@@ -3529,11 +6076,11 @@
         <v>20</v>
       </c>
       <c r="J72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8054</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7456437499999997</v>
       </c>
     </row>
@@ -3563,11 +6110,11 @@
         <v>21</v>
       </c>
       <c r="J73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7749</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7474574449999998</v>
       </c>
     </row>
@@ -3597,11 +6144,11 @@
         <v>22</v>
       </c>
       <c r="J74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7749</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7500253700000006</v>
       </c>
     </row>
@@ -3631,11 +6178,11 @@
         <v>23</v>
       </c>
       <c r="J75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7749</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7408948749999997</v>
       </c>
     </row>
@@ -3665,11 +6212,11 @@
         <v>24</v>
       </c>
       <c r="J76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7749</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7434006499999999</v>
       </c>
     </row>
@@ -3699,11 +6246,11 @@
         <v>25</v>
       </c>
       <c r="J77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7749</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7502064599999998</v>
       </c>
     </row>
@@ -3733,11 +6280,11 @@
         <v>26</v>
       </c>
       <c r="J78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7749</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7454930350000002</v>
       </c>
     </row>
@@ -3767,11 +6314,11 @@
         <v>27</v>
       </c>
       <c r="J79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7749</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7488215899999999</v>
       </c>
     </row>
@@ -3801,11 +6348,11 @@
         <v>28</v>
       </c>
       <c r="J80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7749</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7502891200000004</v>
       </c>
     </row>
@@ -3835,11 +6382,11 @@
         <v>29</v>
       </c>
       <c r="J81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7749</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.74475179</v>
       </c>
     </row>
@@ -3869,11 +6416,11 @@
         <v>30</v>
       </c>
       <c r="J82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7749</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7448993250000004</v>
       </c>
     </row>
@@ -3903,11 +6450,11 @@
         <v>31</v>
       </c>
       <c r="J83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7749</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7514437350000001</v>
       </c>
     </row>
@@ -3937,11 +6484,11 @@
         <v>32</v>
       </c>
       <c r="J84">
-        <f t="shared" ref="J84:J147" si="6">SUMIFS(D:D,A:A,G84,B:B,H84,C:C,I84)/COUNTIFS(A:A,G84,B:B,H84,C:C,I84)</f>
+        <f t="shared" ref="J84:J147" si="8">SUMIFS(D:D,A:A,G84,B:B,H84,C:C,I84)/COUNTIFS(A:A,G84,B:B,H84,C:C,I84)</f>
         <v>7749</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" ref="K84:K147" si="7">SUMIFS(E:E,A:A,G84,B:B,H84,C:C,I84)/COUNTIFS(A:A,G84,B:B,H84,C:C,I84)</f>
+        <f t="shared" ref="K84:K147" si="9">SUMIFS(E:E,A:A,G84,B:B,H84,C:C,I84)/COUNTIFS(A:A,G84,B:B,H84,C:C,I84)</f>
         <v>1.7403741299999997</v>
       </c>
     </row>
@@ -3971,11 +6518,11 @@
         <v>33</v>
       </c>
       <c r="J85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7749</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7520016899999997</v>
       </c>
     </row>
@@ -4005,11 +6552,11 @@
         <v>34</v>
       </c>
       <c r="J86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7749</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7375724099999998</v>
       </c>
     </row>
@@ -4039,11 +6586,11 @@
         <v>35</v>
       </c>
       <c r="J87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7749</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7473411000000003</v>
       </c>
     </row>
@@ -4073,11 +6620,11 @@
         <v>36</v>
       </c>
       <c r="J88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7749</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.742694765</v>
       </c>
     </row>
@@ -4107,11 +6654,11 @@
         <v>37</v>
       </c>
       <c r="J89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7749</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7501225549999997</v>
       </c>
     </row>
@@ -4141,11 +6688,11 @@
         <v>38</v>
       </c>
       <c r="J90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7749</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7661140100000001</v>
       </c>
     </row>
@@ -4175,11 +6722,11 @@
         <v>39</v>
       </c>
       <c r="J91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7749</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7616942250000001</v>
       </c>
     </row>
@@ -4209,11 +6756,11 @@
         <v>40</v>
       </c>
       <c r="J92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7749</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7587777450000004</v>
       </c>
     </row>
@@ -4243,11 +6790,11 @@
         <v>41</v>
       </c>
       <c r="J93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7749</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.76870722</v>
       </c>
     </row>
@@ -4277,11 +6824,11 @@
         <v>42</v>
       </c>
       <c r="J94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7749</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7519744550000003</v>
       </c>
     </row>
@@ -4311,11 +6858,11 @@
         <v>43</v>
       </c>
       <c r="J95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7749</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7599638699999995</v>
       </c>
     </row>
@@ -4345,11 +6892,11 @@
         <v>44</v>
       </c>
       <c r="J96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7749</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7455990199999998</v>
       </c>
     </row>
@@ -4379,11 +6926,11 @@
         <v>45</v>
       </c>
       <c r="J97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7749</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7496733500000001</v>
       </c>
     </row>
@@ -4413,11 +6960,11 @@
         <v>46</v>
       </c>
       <c r="J98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7749</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7536494950000001</v>
       </c>
     </row>
@@ -4447,11 +6994,11 @@
         <v>47</v>
       </c>
       <c r="J99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7749</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.766401315</v>
       </c>
     </row>
@@ -4481,11 +7028,11 @@
         <v>48</v>
       </c>
       <c r="J100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7749</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7478959549999999</v>
       </c>
     </row>
@@ -4515,11 +7062,11 @@
         <v>49</v>
       </c>
       <c r="J101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7749</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7513378249999996</v>
       </c>
     </row>
@@ -4549,11 +7096,11 @@
         <v>50</v>
       </c>
       <c r="J102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7749</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7456594249999999</v>
       </c>
     </row>
@@ -4583,11 +7130,11 @@
         <v>2147483647</v>
       </c>
       <c r="J103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7679</v>
       </c>
       <c r="K103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7258842200000004</v>
       </c>
     </row>
@@ -4617,11 +7164,11 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8013</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7427787750000001</v>
       </c>
     </row>
@@ -4651,11 +7198,11 @@
         <v>2</v>
       </c>
       <c r="J105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8013</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7522203449999996</v>
       </c>
     </row>
@@ -4685,11 +7232,11 @@
         <v>3</v>
       </c>
       <c r="J106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8013</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7426578850000003</v>
       </c>
     </row>
@@ -4719,11 +7266,11 @@
         <v>4</v>
       </c>
       <c r="J107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8013</v>
       </c>
       <c r="K107" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7376357700000002</v>
       </c>
     </row>
@@ -4753,11 +7300,11 @@
         <v>5</v>
       </c>
       <c r="J108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8013</v>
       </c>
       <c r="K108" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.74597414</v>
       </c>
     </row>
@@ -4787,11 +7334,11 @@
         <v>6</v>
       </c>
       <c r="J109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8013</v>
       </c>
       <c r="K109" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7432094899999999</v>
       </c>
     </row>
@@ -4821,11 +7368,11 @@
         <v>7</v>
       </c>
       <c r="J110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8013</v>
       </c>
       <c r="K110" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7482090700000004</v>
       </c>
     </row>
@@ -4855,11 +7402,11 @@
         <v>8</v>
       </c>
       <c r="J111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8011</v>
       </c>
       <c r="K111" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7491497300000003</v>
       </c>
     </row>
@@ -4889,11 +7436,11 @@
         <v>9</v>
       </c>
       <c r="J112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8011</v>
       </c>
       <c r="K112" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7469196200000003</v>
       </c>
     </row>
@@ -4923,11 +7470,11 @@
         <v>10</v>
       </c>
       <c r="J113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8011</v>
       </c>
       <c r="K113" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7459773200000004</v>
       </c>
     </row>
@@ -4957,11 +7504,11 @@
         <v>11</v>
       </c>
       <c r="J114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8011</v>
       </c>
       <c r="K114" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7423065149999999</v>
       </c>
     </row>
@@ -4991,11 +7538,11 @@
         <v>12</v>
       </c>
       <c r="J115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8011</v>
       </c>
       <c r="K115" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7456015300000005</v>
       </c>
     </row>
@@ -5025,11 +7572,11 @@
         <v>13</v>
       </c>
       <c r="J116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8011</v>
       </c>
       <c r="K116" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.745124715</v>
       </c>
     </row>
@@ -5059,11 +7606,11 @@
         <v>14</v>
       </c>
       <c r="J117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8011</v>
       </c>
       <c r="K117" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.73623364</v>
       </c>
     </row>
@@ -5093,11 +7640,11 @@
         <v>15</v>
       </c>
       <c r="J118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8004</v>
       </c>
       <c r="K118" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.749726415</v>
       </c>
     </row>
@@ -5127,11 +7674,11 @@
         <v>16</v>
       </c>
       <c r="J119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8004</v>
       </c>
       <c r="K119" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7442388249999996</v>
       </c>
     </row>
@@ -5161,11 +7708,11 @@
         <v>17</v>
       </c>
       <c r="J120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8004</v>
       </c>
       <c r="K120" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7403516800000003</v>
       </c>
     </row>
@@ -5195,11 +7742,11 @@
         <v>18</v>
       </c>
       <c r="J121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8004</v>
       </c>
       <c r="K121" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7443174250000002</v>
       </c>
     </row>
@@ -5229,11 +7776,11 @@
         <v>19</v>
       </c>
       <c r="J122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8002</v>
       </c>
       <c r="K122" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7423773250000003</v>
       </c>
     </row>
@@ -5263,11 +7810,11 @@
         <v>20</v>
       </c>
       <c r="J123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8002</v>
       </c>
       <c r="K123" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7457063449999997</v>
       </c>
     </row>
@@ -5297,11 +7844,11 @@
         <v>21</v>
       </c>
       <c r="J124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8002</v>
       </c>
       <c r="K124" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7418557750000001</v>
       </c>
     </row>
@@ -5331,11 +7878,11 @@
         <v>22</v>
       </c>
       <c r="J125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7998</v>
       </c>
       <c r="K125" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7443031050000002</v>
       </c>
     </row>
@@ -5365,11 +7912,11 @@
         <v>23</v>
       </c>
       <c r="J126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7998</v>
       </c>
       <c r="K126" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7453947550000002</v>
       </c>
     </row>
@@ -5399,11 +7946,11 @@
         <v>24</v>
       </c>
       <c r="J127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7998</v>
       </c>
       <c r="K127" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.74957092</v>
       </c>
     </row>
@@ -5433,11 +7980,11 @@
         <v>25</v>
       </c>
       <c r="J128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7998</v>
       </c>
       <c r="K128" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7459197800000001</v>
       </c>
     </row>
@@ -5467,11 +8014,11 @@
         <v>26</v>
       </c>
       <c r="J129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7998</v>
       </c>
       <c r="K129" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7445998149999997</v>
       </c>
     </row>
@@ -5501,11 +8048,11 @@
         <v>27</v>
       </c>
       <c r="J130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7998</v>
       </c>
       <c r="K130" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7425507699999998</v>
       </c>
     </row>
@@ -5535,11 +8082,11 @@
         <v>28</v>
       </c>
       <c r="J131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7994</v>
       </c>
       <c r="K131" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7481978949999999</v>
       </c>
     </row>
@@ -5569,11 +8116,11 @@
         <v>29</v>
       </c>
       <c r="J132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7994</v>
       </c>
       <c r="K132" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7422737300000002</v>
       </c>
     </row>
@@ -5603,11 +8150,11 @@
         <v>30</v>
       </c>
       <c r="J133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7994</v>
       </c>
       <c r="K133" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.75589057</v>
       </c>
     </row>
@@ -5637,11 +8184,11 @@
         <v>31</v>
       </c>
       <c r="J134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7994</v>
       </c>
       <c r="K134" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7430879450000003</v>
       </c>
     </row>
@@ -5671,11 +8218,11 @@
         <v>32</v>
       </c>
       <c r="J135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7994</v>
       </c>
       <c r="K135" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7593789599999998</v>
       </c>
     </row>
@@ -5705,11 +8252,11 @@
         <v>33</v>
       </c>
       <c r="J136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7994</v>
       </c>
       <c r="K136" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7497492650000002</v>
       </c>
     </row>
@@ -5739,11 +8286,11 @@
         <v>34</v>
       </c>
       <c r="J137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7994</v>
       </c>
       <c r="K137" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7404582049999995</v>
       </c>
     </row>
@@ -5773,11 +8320,11 @@
         <v>35</v>
       </c>
       <c r="J138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7994</v>
       </c>
       <c r="K138" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7358843049999997</v>
       </c>
     </row>
@@ -5807,11 +8354,11 @@
         <v>36</v>
       </c>
       <c r="J139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7994</v>
       </c>
       <c r="K139" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7405621499999999</v>
       </c>
     </row>
@@ -5841,11 +8388,11 @@
         <v>37</v>
       </c>
       <c r="J140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7994</v>
       </c>
       <c r="K140" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7398048699999999</v>
       </c>
     </row>
@@ -5875,11 +8422,11 @@
         <v>38</v>
       </c>
       <c r="J141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7994</v>
       </c>
       <c r="K141" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7606064750000001</v>
       </c>
     </row>
@@ -5909,11 +8456,11 @@
         <v>39</v>
       </c>
       <c r="J142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7984</v>
       </c>
       <c r="K142" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.77524211</v>
       </c>
     </row>
@@ -5943,11 +8490,11 @@
         <v>40</v>
       </c>
       <c r="J143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7984</v>
       </c>
       <c r="K143" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7750401699999998</v>
       </c>
     </row>
@@ -5977,11 +8524,11 @@
         <v>41</v>
       </c>
       <c r="J144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7984</v>
       </c>
       <c r="K144" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7655260899999998</v>
       </c>
     </row>
@@ -6011,11 +8558,11 @@
         <v>42</v>
       </c>
       <c r="J145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7984</v>
       </c>
       <c r="K145" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7611037200000002</v>
       </c>
     </row>
@@ -6045,11 +8592,11 @@
         <v>43</v>
       </c>
       <c r="J146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7984</v>
       </c>
       <c r="K146" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.756586295</v>
       </c>
     </row>
@@ -6079,11 +8626,11 @@
         <v>44</v>
       </c>
       <c r="J147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7679</v>
       </c>
       <c r="K147" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7597671949999998</v>
       </c>
     </row>
@@ -6113,11 +8660,11 @@
         <v>45</v>
       </c>
       <c r="J148">
-        <f t="shared" ref="J148:J203" si="8">SUMIFS(D:D,A:A,G148,B:B,H148,C:C,I148)/COUNTIFS(A:A,G148,B:B,H148,C:C,I148)</f>
+        <f t="shared" ref="J148:J203" si="10">SUMIFS(D:D,A:A,G148,B:B,H148,C:C,I148)/COUNTIFS(A:A,G148,B:B,H148,C:C,I148)</f>
         <v>7679</v>
       </c>
       <c r="K148" s="1">
-        <f t="shared" ref="K148:K203" si="9">SUMIFS(E:E,A:A,G148,B:B,H148,C:C,I148)/COUNTIFS(A:A,G148,B:B,H148,C:C,I148)</f>
+        <f t="shared" ref="K148:K203" si="11">SUMIFS(E:E,A:A,G148,B:B,H148,C:C,I148)/COUNTIFS(A:A,G148,B:B,H148,C:C,I148)</f>
         <v>1.7603195800000002</v>
       </c>
     </row>
@@ -6147,11 +8694,11 @@
         <v>46</v>
       </c>
       <c r="J149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K149" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7604356999999999</v>
       </c>
     </row>
@@ -6181,11 +8728,11 @@
         <v>47</v>
       </c>
       <c r="J150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K150" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.77325859</v>
       </c>
     </row>
@@ -6215,11 +8762,11 @@
         <v>48</v>
       </c>
       <c r="J151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K151" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7525259800000004</v>
       </c>
     </row>
@@ -6249,11 +8796,11 @@
         <v>49</v>
       </c>
       <c r="J152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K152" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7455971199999998</v>
       </c>
     </row>
@@ -6283,11 +8830,11 @@
         <v>50</v>
       </c>
       <c r="J153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K153" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7372706949999999</v>
       </c>
     </row>
@@ -6317,11 +8864,11 @@
         <v>1</v>
       </c>
       <c r="J154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8013</v>
       </c>
       <c r="K154" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.742053345</v>
       </c>
     </row>
@@ -6351,11 +8898,11 @@
         <v>2</v>
       </c>
       <c r="J155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8013</v>
       </c>
       <c r="K155" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7479709850000003</v>
       </c>
     </row>
@@ -6385,11 +8932,11 @@
         <v>3</v>
       </c>
       <c r="J156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8013</v>
       </c>
       <c r="K156" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7538176750000001</v>
       </c>
     </row>
@@ -6419,11 +8966,11 @@
         <v>4</v>
       </c>
       <c r="J157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8011</v>
       </c>
       <c r="K157" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7434724499999998</v>
       </c>
     </row>
@@ -6453,11 +9000,11 @@
         <v>5</v>
       </c>
       <c r="J158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8011</v>
       </c>
       <c r="K158" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7514257149999999</v>
       </c>
     </row>
@@ -6487,11 +9034,11 @@
         <v>6</v>
       </c>
       <c r="J159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8011</v>
       </c>
       <c r="K159" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7415194150000002</v>
       </c>
     </row>
@@ -6521,11 +9068,11 @@
         <v>7</v>
       </c>
       <c r="J160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8011</v>
       </c>
       <c r="K160" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.744946385</v>
       </c>
     </row>
@@ -6555,11 +9102,11 @@
         <v>8</v>
       </c>
       <c r="J161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8004</v>
       </c>
       <c r="K161" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7477844950000001</v>
       </c>
     </row>
@@ -6589,11 +9136,11 @@
         <v>9</v>
       </c>
       <c r="J162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8004</v>
       </c>
       <c r="K162" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7497836499999999</v>
       </c>
     </row>
@@ -6623,11 +9170,11 @@
         <v>10</v>
       </c>
       <c r="J163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8002</v>
       </c>
       <c r="K163" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.747522875</v>
       </c>
     </row>
@@ -6657,11 +9204,11 @@
         <v>11</v>
       </c>
       <c r="J164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7998</v>
       </c>
       <c r="K164" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7509712499999999</v>
       </c>
     </row>
@@ -6691,11 +9238,11 @@
         <v>12</v>
       </c>
       <c r="J165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7998</v>
       </c>
       <c r="K165" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7629061050000003</v>
       </c>
     </row>
@@ -6725,11 +9272,11 @@
         <v>13</v>
       </c>
       <c r="J166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7998</v>
       </c>
       <c r="K166" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7513755549999999</v>
       </c>
     </row>
@@ -6759,11 +9306,11 @@
         <v>14</v>
       </c>
       <c r="J167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7994</v>
       </c>
       <c r="K167" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.75929727</v>
       </c>
     </row>
@@ -6793,11 +9340,11 @@
         <v>15</v>
       </c>
       <c r="J168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7994</v>
       </c>
       <c r="K168" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7499758299999997</v>
       </c>
     </row>
@@ -6827,11 +9374,11 @@
         <v>16</v>
       </c>
       <c r="J169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7994</v>
       </c>
       <c r="K169" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7501035349999998</v>
       </c>
     </row>
@@ -6861,11 +9408,11 @@
         <v>17</v>
       </c>
       <c r="J170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7994</v>
       </c>
       <c r="K170" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7599154449999996</v>
       </c>
     </row>
@@ -6895,11 +9442,11 @@
         <v>18</v>
       </c>
       <c r="J171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7994</v>
       </c>
       <c r="K171" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7550977749999999</v>
       </c>
     </row>
@@ -6929,11 +9476,11 @@
         <v>19</v>
       </c>
       <c r="J172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7994</v>
       </c>
       <c r="K172" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.75683912</v>
       </c>
     </row>
@@ -6963,11 +9510,11 @@
         <v>20</v>
       </c>
       <c r="J173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7984</v>
       </c>
       <c r="K173" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7517211449999999</v>
       </c>
     </row>
@@ -6997,11 +9544,11 @@
         <v>21</v>
       </c>
       <c r="J174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7984</v>
       </c>
       <c r="K174" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.756127365</v>
       </c>
     </row>
@@ -7031,11 +9578,11 @@
         <v>22</v>
       </c>
       <c r="J175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K175" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.761113245</v>
       </c>
     </row>
@@ -7065,11 +9612,11 @@
         <v>23</v>
       </c>
       <c r="J176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K176" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7485937099999997</v>
       </c>
     </row>
@@ -7099,11 +9646,11 @@
         <v>24</v>
       </c>
       <c r="J177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K177" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.75942607</v>
       </c>
     </row>
@@ -7133,11 +9680,11 @@
         <v>25</v>
       </c>
       <c r="J178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K178" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7505705599999999</v>
       </c>
     </row>
@@ -7167,11 +9714,11 @@
         <v>26</v>
       </c>
       <c r="J179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K179" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.75987084</v>
       </c>
     </row>
@@ -7201,11 +9748,11 @@
         <v>27</v>
       </c>
       <c r="J180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K180" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7549056300000001</v>
       </c>
     </row>
@@ -7235,11 +9782,11 @@
         <v>28</v>
       </c>
       <c r="J181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K181" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7569409099999997</v>
       </c>
     </row>
@@ -7269,11 +9816,11 @@
         <v>29</v>
       </c>
       <c r="J182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K182" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7633805949999999</v>
       </c>
     </row>
@@ -7303,11 +9850,11 @@
         <v>30</v>
       </c>
       <c r="J183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K183" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7646488849999997</v>
       </c>
     </row>
@@ -7337,11 +9884,11 @@
         <v>31</v>
       </c>
       <c r="J184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K184" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7579945800000001</v>
       </c>
     </row>
@@ -7371,11 +9918,11 @@
         <v>32</v>
       </c>
       <c r="J185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K185" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.75696126</v>
       </c>
     </row>
@@ -7405,11 +9952,11 @@
         <v>33</v>
       </c>
       <c r="J186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K186" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7630212749999998</v>
       </c>
     </row>
@@ -7439,11 +9986,11 @@
         <v>34</v>
       </c>
       <c r="J187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K187" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7565780050000002</v>
       </c>
     </row>
@@ -7473,11 +10020,11 @@
         <v>35</v>
       </c>
       <c r="J188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K188" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7591073500000001</v>
       </c>
     </row>
@@ -7507,11 +10054,11 @@
         <v>36</v>
       </c>
       <c r="J189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K189" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7557566849999997</v>
       </c>
     </row>
@@ -7541,11 +10088,11 @@
         <v>37</v>
       </c>
       <c r="J190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K190" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7776965750000002</v>
       </c>
     </row>
@@ -7575,11 +10122,11 @@
         <v>38</v>
       </c>
       <c r="J191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K191" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7768784799999999</v>
       </c>
     </row>
@@ -7609,11 +10156,11 @@
         <v>39</v>
       </c>
       <c r="J192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K192" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7724077999999994</v>
       </c>
     </row>
@@ -7643,11 +10190,11 @@
         <v>40</v>
       </c>
       <c r="J193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K193" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7829418100000001</v>
       </c>
     </row>
@@ -7677,11 +10224,11 @@
         <v>41</v>
       </c>
       <c r="J194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K194" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7804755649999997</v>
       </c>
     </row>
@@ -7711,11 +10258,11 @@
         <v>42</v>
       </c>
       <c r="J195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K195" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7679852249999999</v>
       </c>
     </row>
@@ -7745,11 +10292,11 @@
         <v>43</v>
       </c>
       <c r="J196">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K196" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7770482200000004</v>
       </c>
     </row>
@@ -7779,11 +10326,11 @@
         <v>44</v>
       </c>
       <c r="J197">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K197" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7634242600000001</v>
       </c>
     </row>
@@ -7813,11 +10360,11 @@
         <v>45</v>
       </c>
       <c r="J198">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K198" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7699872250000002</v>
       </c>
     </row>
@@ -7847,11 +10394,11 @@
         <v>46</v>
       </c>
       <c r="J199">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K199" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7700903000000001</v>
       </c>
     </row>
@@ -7881,11 +10428,11 @@
         <v>47</v>
       </c>
       <c r="J200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K200" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7691254600000001</v>
       </c>
     </row>
@@ -7915,11 +10462,11 @@
         <v>48</v>
       </c>
       <c r="J201">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K201" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7639836599999998</v>
       </c>
     </row>
@@ -7949,11 +10496,11 @@
         <v>49</v>
       </c>
       <c r="J202">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K202" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7629404900000001</v>
       </c>
     </row>
@@ -7983,11 +10530,11 @@
         <v>50</v>
       </c>
       <c r="J203">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7679</v>
       </c>
       <c r="K203" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7631797050000002</v>
       </c>
     </row>
@@ -73239,5 +75786,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>